--- a/Fichiers rendus/Répartition_heures.xlsx
+++ b/Fichiers rendus/Répartition_heures.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58245AFA-AE81-654C-B649-6715077B7114}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F04379C-0511-4F0F-84D7-79EA22F09A5B}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="960" yWindow="465" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2023,17 +2023,17 @@
   <dimension ref="A1:R21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.1640625" style="7" customWidth="1"/>
-    <col min="2" max="17" width="5.33203125" style="2" customWidth="1"/>
-    <col min="18" max="18" width="8.6640625" style="10" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" style="7" customWidth="1"/>
+    <col min="2" max="17" width="5.28515625" style="2" customWidth="1"/>
+    <col min="18" max="18" width="8.7109375" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>2</v>
       </c>
@@ -2041,7 +2041,7 @@
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>34</v>
       </c>
@@ -2049,7 +2049,7 @@
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
     </row>
-    <row r="4" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="B4" s="4" t="s">
         <v>6</v>
@@ -2103,7 +2103,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>29</v>
       </c>
@@ -2158,7 +2158,7 @@
         <v>89.5</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>30</v>
       </c>
@@ -2213,7 +2213,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>28</v>
       </c>
@@ -2268,7 +2268,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>31</v>
       </c>
@@ -2323,7 +2323,7 @@
         <v>88.5</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>32</v>
       </c>
@@ -2378,7 +2378,7 @@
         <v>88.5</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>33</v>
       </c>
@@ -2433,7 +2433,7 @@
         <v>89.5</v>
       </c>
     </row>
-    <row r="11" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>22</v>
       </c>
@@ -2506,7 +2506,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>0</v>
       </c>
@@ -2514,7 +2514,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>3</v>
       </c>
@@ -2522,17 +2522,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B15" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>0</v>
       </c>
@@ -2540,7 +2540,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>4</v>
       </c>
@@ -2548,12 +2548,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B21" s="8" t="s">
         <v>27</v>
       </c>
